--- a/classfiers/bottleneck/elm/smote/bottleneck_elm__smote_results.xlsx
+++ b/classfiers/bottleneck/elm/smote/bottleneck_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6057142857142858</v>
+        <v>0.8105263157894737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4930232558139535</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5435897435897437</v>
+        <v>0.7661691542288557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6575527059334927</v>
+        <v>0.8237905176584422</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.8268156424581006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.539906103286385</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.577889447236181</v>
+        <v>0.7935656836461126</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6641453660233003</v>
+        <v>0.843594211316006</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6084656084656085</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5693069306930693</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6697625514763865</v>
+        <v>0.7698343079922028</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3881278538812785</v>
+        <v>0.7738693467336684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4683195592286501</v>
+        <v>0.7817258883248732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6739420156867885</v>
+        <v>0.8321316728570387</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.8397790055248618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.6877828054298643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.574468085106383</v>
+        <v>0.7562189054726368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6883910609638765</v>
+        <v>0.8285190167543108</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6254755989755989</v>
+        <v>0.7967062440365386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4953701260322346</v>
+        <v>0.7259802425724704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5505004258557211</v>
+        <v>0.7589953857939552</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6707587400167688</v>
+        <v>0.8195739453156001</v>
       </c>
     </row>
   </sheetData>
